--- a/SchVictorina.WebAPI/Config/excels/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/rivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E686F6A-3F45-4FF6-BE70-C7B7F13FD579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E1132-9F7D-4AF9-9E5B-3CE21CE5DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
   <si>
     <t>Название</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
 </sst>
 </file>
@@ -997,28 +1000,31 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1038,13 +1044,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2D64D05C-B20D-4E5B-BA3A-67E90E97AE0B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="10" unboundColumnsRight="1">
+    <queryTableFields count="6">
       <queryTableField id="3" name="Название" tableColumnId="3"/>
       <queryTableField id="4" name="Длина,  км" tableColumnId="4"/>
       <queryTableField id="6" name="Площадь бассейна, тыс.км2" tableColumnId="6"/>
       <queryTableField id="7" name="Расход воды, м3/с" tableColumnId="7"/>
       <queryTableField id="8" name="Впадает в" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="3">
       <deletedField name="Header"/>
@@ -1056,14 +1063,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D569ECAE-3198-4085-B6F8-167520FB2F85}" name="Table_0" displayName="Table_0" ref="A1:E77" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E77" xr:uid="{D569ECAE-3198-4085-B6F8-167520FB2F85}"/>
-  <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{83097BBC-B3E7-4C06-A91D-395385E8603F}" uniqueName="3" name="Название" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BB0EBC35-C998-4AF5-BF32-0E7A2231DBA6}" uniqueName="4" name="Длина" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{BFFA002B-97A8-4ABB-8899-B1C7B2F371DD}" uniqueName="6" name="Площадь" queryTableFieldId="6" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D569ECAE-3198-4085-B6F8-167520FB2F85}" name="Table_0" displayName="Table_0" ref="A1:F77" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F77" xr:uid="{D569ECAE-3198-4085-B6F8-167520FB2F85}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E77">
+    <sortCondition ref="B1:B77"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{83097BBC-B3E7-4C06-A91D-395385E8603F}" uniqueName="3" name="Название" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BB0EBC35-C998-4AF5-BF32-0E7A2231DBA6}" uniqueName="4" name="Длина" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BFFA002B-97A8-4ABB-8899-B1C7B2F371DD}" uniqueName="6" name="Площадь" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{04C5DBB2-4BA1-4CBC-921B-1450401CDC6B}" uniqueName="7" name="Расход воды" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E2B39CA3-5030-40FB-AC76-EF0BE40F3F37}" uniqueName="8" name="Впадает в" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{E2B39CA3-5030-40FB-AC76-EF0BE40F3F37}" uniqueName="8" name="Впадает в" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9C078576-FB14-4ED5-BFFB-64887DD6BBA9}" uniqueName="1" name="Описание" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1366,1329 +1377,1409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB528420-7780-449B-9733-531323FF703A}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>238</v>
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="F77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2702,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99941-53E7-45AA-9340-AE25C5ED6C6A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2718,25 +2809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>285</v>
       </c>
     </row>

--- a/SchVictorina.WebAPI/Config/excels/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/rivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E1132-9F7D-4AF9-9E5B-3CE21CE5DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A8511-6B76-4CF8-85C3-56D880E86CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
   <si>
     <t>Название</t>
   </si>
@@ -894,9 +894,6 @@
     <t>Воронеж</t>
   </si>
   <si>
-    <t>Какая самая длинная река в {Страна}?</t>
-  </si>
-  <si>
     <t>Какая река впадает в {Впадает в}?</t>
   </si>
   <si>
@@ -907,6 +904,9 @@
   </si>
   <si>
     <t>Описание</t>
+  </si>
+  <si>
+    <t>Какая самая длинная река?</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
     <tableColumn id="3" xr3:uid="{83097BBC-B3E7-4C06-A91D-395385E8603F}" uniqueName="3" name="Название" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{BB0EBC35-C998-4AF5-BF32-0E7A2231DBA6}" uniqueName="4" name="Длина" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{BFFA002B-97A8-4ABB-8899-B1C7B2F371DD}" uniqueName="6" name="Площадь" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{04C5DBB2-4BA1-4CBC-921B-1450401CDC6B}" uniqueName="7" name="Расход воды" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E2B39CA3-5030-40FB-AC76-EF0BE40F3F37}" uniqueName="8" name="Впадает в" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{04C5DBB2-4BA1-4CBC-921B-1450401CDC6B}" uniqueName="7" name="Расход воды" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E2B39CA3-5030-40FB-AC76-EF0BE40F3F37}" uniqueName="8" name="Впадает в" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{9C078576-FB14-4ED5-BFFB-64887DD6BBA9}" uniqueName="1" name="Описание" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB528420-7780-449B-9733-531323FF703A}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2793,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99941-53E7-45AA-9340-AE25C5ED6C6A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,18 +2828,18 @@
         <v>268</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
-        <v>269</v>
-      </c>
       <c r="F2" t="s">
         <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,15 +2847,24 @@
         <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/SchVictorina.WebAPI/Config/excels/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/rivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED176E7D-A404-4061-94DB-0C21A6471022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDCB2D-E311-421A-8F4C-E908DD2328AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
@@ -936,16 +936,16 @@
     <t>Дон — река в Европейской части России. Длина реки — 1870 км, площадь водосборного бассейна — 422 тысячи км². Средний расход воды — 680 м³/с. Уклон реки — 0,096 м/км. Пятая по протяжённости река Европы. Дон судоходен на протяжении 1590 км вверх от устья, до Воронежа, регулярное судоходство действует до города Лиски (1355 км).</t>
   </si>
   <si>
-    <t>Енисей — река в Тыве, Хакасии и Красноярском крае, одна из самых длинных и полноводных рек мира и России. Впадает в Карское море Северного Ледовитого океана[6]. Длина — 3487 км, площадь водосборного бассейна — 2 580 000 км² (второй по величине в России), а годовой сток составляет 624,41 км³ (самая полноводная река в России). Питание Енисея смешанное с преобладанием снегового. Доля снегового — немного менее 50 %, дождевого — 36—38 %, подземного — в верховьях до 16 % и уменьшается к низовьям. Замерзание начинается в низовьях (начало октября)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Иртыш — река в Китае (Синьцзян-Уйгурский автономный район), Казахстане и России (Омская и Тюменская области), левый, главный приток Оби. Длина Иртыша составляет 4248 км, что превышает длину самой Оби на 598 км. Иртыш вместе с Обью — самый протяжённый водоток в России, третий по протяжённости в Азии и шестой в мире (5410 км). Площадь бассейна — 1643 тыс. км². Годовой сток равен 94,6 км³. </t>
   </si>
   <si>
-    <t xml:space="preserve">Обь — река в России, протекает по Западной Сибири. Одна из крупнейших рек в мире. Длина Оби — 3650 км (от истока Иртыша — 5410 км)[4], площадь водосборного бассейна — 2 990 000 км².[5] Расход воды в 287 км от устья (у Салехарда) — 12 492 м³/с[6], что соответствует годовому стоку 394 км³. Берёт начало при слиянии Бии и Катуни на Алтае. В устье образует Обскую губу и впадает в Карское море. </t>
-  </si>
-  <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>Енисей — река в Тыве, Хакасии и Красноярском крае, одна из самых длинных и полноводных рек мира и России. Впадает в Карское море Северного Ледовитого океана. Длина — 3487 км, площадь водосборного бассейна — 2 580 000 км² (второй по величине в России), а годовой сток составляет 624,41 км³ (самая полноводная река в России). Питание Енисея смешанное с преобладанием снегового. Доля снегового — немного менее 50 %, дождевого — 36—38 %, подземного — в верховьях до 16 % и уменьшается к низовьям. Замерзание начинается в низовьях (начало октября)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обь — река в России, протекает по Западной Сибири. Одна из крупнейших рек в мире. Длина Оби — 3650 км (от истока Иртыша — 5410 км), площадь водосборного бассейна — 2 990 000 км². Расход воды в 287 км от устья (у Салехарда) — 12 492 м³/с, что соответствует годовому стоку 394 км³. Берёт начало при слиянии Бии и Катуни на Алтае. В устье образует Обскую губу и впадает в Карское море. </t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB528420-7780-449B-9733-531323FF703A}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2047,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3006,7 @@
         <v>284</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/SchVictorina.WebAPI/Config/excels/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/rivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDCB2D-E311-421A-8F4C-E908DD2328AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F229FDEC-0F3D-4107-87AA-13BA416F5FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
+    <workbookView minimized="1" xWindow="3675" yWindow="3675" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="301">
   <si>
     <t>Название</t>
   </si>
@@ -939,13 +939,16 @@
     <t xml:space="preserve">Иртыш — река в Китае (Синьцзян-Уйгурский автономный район), Казахстане и России (Омская и Тюменская области), левый, главный приток Оби. Длина Иртыша составляет 4248 км, что превышает длину самой Оби на 598 км. Иртыш вместе с Обью — самый протяжённый водоток в России, третий по протяжённости в Азии и шестой в мире (5410 км). Площадь бассейна — 1643 тыс. км². Годовой сток равен 94,6 км³. </t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>Енисей — река в Тыве, Хакасии и Красноярском крае, одна из самых длинных и полноводных рек мира и России. Впадает в Карское море Северного Ледовитого океана. Длина — 3487 км, площадь водосборного бассейна — 2 580 000 км² (второй по величине в России), а годовой сток составляет 624,41 км³ (самая полноводная река в России). Питание Енисея смешанное с преобладанием снегового. Доля снегового — немного менее 50 %, дождевого — 36—38 %, подземного — в верховьях до 16 % и уменьшается к низовьям. Замерзание начинается в низовьях (начало октября)</t>
   </si>
   <si>
     <t xml:space="preserve">Обь — река в России, протекает по Западной Сибири. Одна из крупнейших рек в мире. Длина Оби — 3650 км (от истока Иртыша — 5410 км), площадь водосборного бассейна — 2 990 000 км². Расход воды в 287 км от устья (у Салехарда) — 12 492 м³/с, что соответствует годовому стоку 394 км³. Берёт начало при слиянии Бии и Катуни на Алтае. В устье образует Обскую губу и впадает в Карское море. </t>
+  </si>
+  <si>
+    <t>questionImage</t>
+  </si>
+  <si>
+    <t>descriptionImage</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB528420-7780-449B-9733-531323FF703A}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -2049,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2403,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2968,9 +2971,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99941-53E7-45AA-9340-AE25C5ED6C6A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2983,7 +2988,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>263</v>
       </c>
@@ -3006,10 +3011,13 @@
         <v>284</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>282</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>286</v>
       </c>
